--- a/tweets_Cup Noodles_201809101833.xlsx
+++ b/tweets_Cup Noodles_201809101833.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvfon\Documents\Insper\Dados\C-Dados-P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Niubó\C-Dados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04139F56-D2FE-466E-9BEC-F009A485953F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C87F5-26ED-4D60-942C-9A52F2C9D058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1960,17 +1960,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="88.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="89.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>47</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>37</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>59</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>60</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>47</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>61</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>62</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>63</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>65</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>47</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>67</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>68</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>69</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>70</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>71</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>72</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>82</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>83</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>84</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>85</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>86</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>87</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>88</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>89</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>90</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>47</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>91</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>92</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>93</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>94</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>95</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>96</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>97</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>98</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>99</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>100</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>101</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>102</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>103</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>104</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>105</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>106</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>76</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>27</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>107</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>108</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>109</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>110</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>111</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>47</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>112</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>113</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>114</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>115</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>116</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>117</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>118</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>119</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>120</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>121</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>27</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>122</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>123</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>124</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>125</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>126</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>127</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>76</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>128</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>129</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>130</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>27</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>131</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>132</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>133</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>134</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>135</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>136</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>137</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>47</v>
       </c>
@@ -3178,905 +3178,1203 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B152" s="4"/>
-    </row>
-    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B153" s="4"/>
-    </row>
-    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="4"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="4"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B156" s="4"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="4"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B159" s="4"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B160" s="4"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B161" s="4"/>
-    </row>
-    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B161" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B162" s="4"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B163" s="4"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B164" s="4"/>
-    </row>
-    <row r="165" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B165" s="4"/>
-    </row>
-    <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B166" s="4"/>
-    </row>
-    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B167" s="4"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B168" s="4"/>
-    </row>
-    <row r="169" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B168" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B169" s="4"/>
-    </row>
-    <row r="170" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B170" s="4"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B171" s="4"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B172" s="4"/>
-    </row>
-    <row r="173" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B173" s="4"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B174" s="4"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B175" s="4"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B176" s="4"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B177" s="4"/>
-    </row>
-    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B178" s="4"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B179" s="4"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B180" s="4"/>
-    </row>
-    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B181" s="4"/>
-    </row>
-    <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B182" s="4"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B183" s="4"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B184" s="4"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B185" s="4"/>
-    </row>
-    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B185" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B186" s="4"/>
-    </row>
-    <row r="187" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B187" s="4"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B188" s="4"/>
-    </row>
-    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="4"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="4"/>
-    </row>
-    <row r="191" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B190" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="4"/>
-    </row>
-    <row r="192" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B192" s="4"/>
-    </row>
-    <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="4"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B194" s="4"/>
-    </row>
-    <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B194" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B195" s="4"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B196" s="4"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B198" s="4"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B199" s="4"/>
-    </row>
-    <row r="200" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B200" s="4"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B201" s="4"/>
-    </row>
-    <row r="202" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B201" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B202" s="4"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B203" s="4"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B204" s="4"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B205" s="4"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B206" s="4"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B207" s="4"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B208" s="4"/>
-    </row>
-    <row r="209" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B208" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B209" s="4"/>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B210" s="4"/>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B211" s="4"/>
-    </row>
-    <row r="212" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B212" s="4"/>
-    </row>
-    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B213" s="4"/>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B214" s="4"/>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B215" s="4"/>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B216" s="4"/>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B217" s="4"/>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B218" s="4"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B219" s="4"/>
-    </row>
-    <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B219" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B220" s="4"/>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B221" s="4"/>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B222" s="4"/>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B223" s="4"/>
-    </row>
-    <row r="224" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B223" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B224" s="4"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B225" s="4"/>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B226" s="4"/>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B227" s="4"/>
-    </row>
-    <row r="228" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B227" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B228" s="4"/>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B229" s="4"/>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="4"/>
-    </row>
-    <row r="231" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B230" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B231" s="4"/>
-    </row>
-    <row r="232" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B232" s="4"/>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B233" s="4"/>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B234" s="4"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B235" s="4"/>
-    </row>
-    <row r="236" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B235" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B236" s="4"/>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B237" s="4"/>
-    </row>
-    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B237" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B238" s="4"/>
-    </row>
-    <row r="239" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B238" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B239" s="4"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B240" s="4"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B241" s="4"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B242" s="4"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B243" s="4"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B244" s="4"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B245" s="4"/>
-    </row>
-    <row r="246" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B245" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B246" s="4"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B247" s="4"/>
-    </row>
-    <row r="248" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B247" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B248" s="4"/>
-    </row>
-    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B249" s="4"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B250" s="4"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B251" s="4"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B252" s="4"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="4"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B254" s="4"/>
-    </row>
-    <row r="255" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B254" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B255" s="4"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B256" s="4"/>
-    </row>
-    <row r="257" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B256" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B257" s="4"/>
-    </row>
-    <row r="258" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B258" s="4"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B259" s="4"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B260" s="4"/>
-    </row>
-    <row r="261" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B261" s="4"/>
-    </row>
-    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B261" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="4"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B263" s="4"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B264" s="4"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B265" s="4"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B266" s="4"/>
-    </row>
-    <row r="267" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B266" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B267" s="4"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B268" s="4"/>
-    </row>
-    <row r="269" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B269" s="4"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B270" s="4"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B271" s="4"/>
-    </row>
-    <row r="272" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B271" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B272" s="4"/>
-    </row>
-    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B273" s="4"/>
-    </row>
-    <row r="274" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B274" s="4"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B275" s="4"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B276" s="4"/>
-    </row>
-    <row r="277" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B276" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B277" s="4"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B278" s="4"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B279" s="4"/>
-    </row>
-    <row r="280" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B280" s="4"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B281" s="4"/>
-    </row>
-    <row r="282" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B281" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B282" s="4"/>
-    </row>
-    <row r="283" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B283" s="4"/>
-    </row>
-    <row r="284" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B283" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B284" s="4"/>
-    </row>
-    <row r="285" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B285" s="4"/>
-    </row>
-    <row r="286" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B286" s="4"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B287" s="4"/>
-    </row>
-    <row r="288" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B287" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B288" s="4"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B288" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B289" s="4"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B290" s="4"/>
-    </row>
-    <row r="291" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="4"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="4"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B292" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B293" s="4"/>
-    </row>
-    <row r="294" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B293" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B294" s="4"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B295" s="4"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B296" s="4"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B297" s="4"/>
-    </row>
-    <row r="298" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B297" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B298" s="4"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B299" s="4"/>
-    </row>
-    <row r="300" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B299" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B300" s="4"/>
-    </row>
-    <row r="301" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B301" s="4"/>
+      <c r="B301" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4090,1009 +4388,1009 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>444</v>
       </c>

--- a/tweets_Cup Noodles_201809101833.xlsx
+++ b/tweets_Cup Noodles_201809101833.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Niubó\C-Dados-P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvfon\Documents\Insper\Dados\C-Dados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C87F5-26ED-4D60-942C-9A52F2C9D058}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3597F-11F2-47B5-9E1F-85D41AFBB14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="446">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1588,11 +1588,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1620,6 +1617,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1960,2419 +1961,2419 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="5"/>
+    <col min="1" max="1" width="89.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="B68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+      <c r="B70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+      <c r="B73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+      <c r="B74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B75" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B92" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B95" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B100" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B104" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B107" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B117" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B118" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B119" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B120" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+      <c r="B120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B121" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B122" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B123" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
+      <c r="B123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B124" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B125" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B126" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B127" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B128" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="B128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B129" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B131" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
+      <c r="B133" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B135" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B136" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B137" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B139" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B140" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="3" t="s">
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B141" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="s">
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B142" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B143" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="3" t="s">
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B144" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A145" s="3" t="s">
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B145" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="3" t="s">
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B146" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B147" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="3" t="s">
+      <c r="B147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="3" t="s">
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="3" t="s">
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="3" t="s">
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B151" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="3" t="s">
+      <c r="B151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B152" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="3" t="s">
+      <c r="B152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B153" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A154" s="3" t="s">
+      <c r="B153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="3" t="s">
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="3" t="s">
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B156" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="3" t="s">
+      <c r="B156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="3" t="s">
+      <c r="B157" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B158" s="4"/>
-    </row>
-    <row r="159" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="s">
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B159" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="s">
+      <c r="B159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B160" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B161" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B162" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
+      <c r="B162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B163" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="3" t="s">
+      <c r="B163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B164" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="3" t="s">
+      <c r="B164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B165" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="3" t="s">
+      <c r="B165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B166" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="3" t="s">
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B167" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="3" t="s">
+      <c r="B167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B168" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="3" t="s">
+      <c r="B168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B169" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A170" s="3" t="s">
+      <c r="B169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B170" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="3" t="s">
+      <c r="B170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B171" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="3" t="s">
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B172" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A173" s="3" t="s">
+      <c r="B172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B173" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="3" t="s">
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B174" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="3" t="s">
+      <c r="B174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B175" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="3" t="s">
+      <c r="B175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B176" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="3" t="s">
+      <c r="B176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B177" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="3" t="s">
+      <c r="B177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B178" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="3" t="s">
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B179" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="3" t="s">
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B180" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="3" t="s">
+      <c r="B180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B181" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="3" t="s">
+      <c r="B181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B182" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="3" t="s">
+      <c r="B182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B183" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="3" t="s">
+      <c r="B183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B184" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
+      <c r="B184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B185" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="3" t="s">
+      <c r="B185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B186" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A187" s="3" t="s">
+      <c r="B186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B187" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="3" t="s">
+      <c r="B187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B188" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="3" t="s">
+      <c r="B188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B189" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="3" t="s">
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B190" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A191" s="3" t="s">
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="3" t="s">
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B192" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="3" t="s">
+      <c r="B192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B193" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="3" t="s">
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B194" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="3" t="s">
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B195" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="3" t="s">
+      <c r="B195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B196" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="3" t="s">
+      <c r="B196" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B197" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="3" t="s">
+      <c r="B197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B198" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="3" t="s">
+      <c r="B198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B199" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="3" t="s">
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B200" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="3" t="s">
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B201" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="3" t="s">
+      <c r="B201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B202" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="3" t="s">
+      <c r="B202" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B203" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="3" t="s">
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B204" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="3" t="s">
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B205" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="3" t="s">
+      <c r="B205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B206" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="3" t="s">
+      <c r="B206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B207" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="3" t="s">
+      <c r="B207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B208" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="3" t="s">
+      <c r="B208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B209" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="3" t="s">
+      <c r="B209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B210" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="3" t="s">
+      <c r="B210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B211" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="3" t="s">
+      <c r="B211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B212" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="3" t="s">
+      <c r="B212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B213" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="3" t="s">
+      <c r="B213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B214" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="3" t="s">
+      <c r="B214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B215" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="3" t="s">
+      <c r="B215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B216" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="3" t="s">
+      <c r="B216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B217" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="3" t="s">
+      <c r="B217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B218" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="3" t="s">
+      <c r="B218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B219" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="3" t="s">
+      <c r="B219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B220" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="3" t="s">
+      <c r="B220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B221" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="3" t="s">
+      <c r="B221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B222" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="3" t="s">
+      <c r="B222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B223" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A224" s="3" t="s">
+      <c r="B223" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B224" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="3" t="s">
+      <c r="B224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B225" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="3" t="s">
+      <c r="B225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B226" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="3" t="s">
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B227" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="3" t="s">
+      <c r="B227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B228" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="3" t="s">
+      <c r="B228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B229" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="3" t="s">
+      <c r="B229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="3" t="s">
+      <c r="B230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B231" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A232" s="3" t="s">
+      <c r="B231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B232" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="3" t="s">
+      <c r="B232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B233" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="3" t="s">
+      <c r="B233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B234" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="3" t="s">
+      <c r="B234" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B235" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="3" t="s">
+      <c r="B235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B236" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="3" t="s">
+      <c r="B236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B237" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="3" t="s">
+      <c r="B237" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B238" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="3" t="s">
+      <c r="B238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B239" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="3" t="s">
+      <c r="B239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B240" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="3" t="s">
+      <c r="B240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B241" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="3" t="s">
+      <c r="B241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B242" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="3" t="s">
+      <c r="B242" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B243" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="3" t="s">
+      <c r="B243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B244" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="3" t="s">
+      <c r="B244" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B245" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A246" s="3" t="s">
+      <c r="B245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B246" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="3" t="s">
+      <c r="B246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B247" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="3" t="s">
+      <c r="B247" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B248" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="3" t="s">
+      <c r="B248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B249" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="3" t="s">
+      <c r="B249" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B250" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="3" t="s">
+      <c r="B250" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B251" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="3" t="s">
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B252" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="3" t="s">
+      <c r="B252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="3" t="s">
+      <c r="B253" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B254" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A255" s="3" t="s">
+      <c r="B254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B255" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="3" t="s">
+      <c r="B255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B256" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A257" s="3" t="s">
+      <c r="B256" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B257" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A258" s="3" t="s">
+      <c r="B257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B258" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="3" t="s">
+      <c r="B258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B259" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="3" t="s">
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B260" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A261" s="3" t="s">
+      <c r="B260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A261" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B261" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A262" s="3" t="s">
+      <c r="B261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B262" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="3" t="s">
+      <c r="B262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B263" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="3" t="s">
+      <c r="B263" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B264" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="3" t="s">
+      <c r="B264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B265" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="3" t="s">
+      <c r="B265" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B266" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A267" s="3" t="s">
+      <c r="B266" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B267" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="3" t="s">
+      <c r="B267" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B268" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A269" s="3" t="s">
+      <c r="B268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B269" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="3" t="s">
+      <c r="B269" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B270" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="3" t="s">
+      <c r="B270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B271" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A272" s="3" t="s">
+      <c r="B271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B272" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A273" s="3" t="s">
+      <c r="B272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B273" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A274" s="3" t="s">
+      <c r="B273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B274" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="3" t="s">
+      <c r="B274" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B275" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="3" t="s">
+      <c r="B275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B276" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A277" s="3" t="s">
+      <c r="B276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B277" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="3" t="s">
+      <c r="B277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B278" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="3" t="s">
+      <c r="B278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B279" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="3" t="s">
+      <c r="B279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B280" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="3" t="s">
+      <c r="B280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B281" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A282" s="3" t="s">
+      <c r="B281" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B282" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A283" s="3" t="s">
+      <c r="B282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B283" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A284" s="3" t="s">
+      <c r="B283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B284" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A285" s="3" t="s">
+      <c r="B284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B285" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="3" t="s">
+      <c r="B285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B286" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="3" t="s">
+      <c r="B286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B287" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A288" s="3" t="s">
+      <c r="B287" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B288" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="3" t="s">
+      <c r="B288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B289" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="3" t="s">
+      <c r="B289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B290" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A291" s="3" t="s">
+      <c r="B290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B291" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="3" t="s">
+      <c r="B291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="3" t="s">
+      <c r="B292" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B293" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A294" s="3" t="s">
+      <c r="B293" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B294" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="3" t="s">
+      <c r="B294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B295" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="3" t="s">
+      <c r="B295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B296" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="3" t="s">
+      <c r="B296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B297" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A298" s="3" t="s">
+      <c r="B297" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B298" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="3" t="s">
+      <c r="B298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B299" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A300" s="3" t="s">
+      <c r="B299" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B300" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A301" s="3" t="s">
+      <c r="B300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B301" s="4">
+      <c r="B301" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4384,1016 +4385,1224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.88671875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B1" s="10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B82" s="11"/>
+    </row>
+    <row r="83" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B83" s="11"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="B135" s="11"/>
+    </row>
+    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="B136" s="11"/>
+    </row>
+    <row r="137" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="B142" s="11"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B146" s="11"/>
+    </row>
+    <row r="147" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B148" s="11"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="B150" s="11"/>
+    </row>
+    <row r="151" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="B155" s="11"/>
+    </row>
+    <row r="156" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="B156" s="11"/>
+    </row>
+    <row r="157" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="B157" s="11"/>
+    </row>
+    <row r="158" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="B159" s="11"/>
+    </row>
+    <row r="160" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="B164" s="11"/>
+    </row>
+    <row r="165" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="B165" s="11"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="B166" s="11"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="B168" s="11"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="B170" s="11"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="B171" s="11"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="B172" s="11"/>
+    </row>
+    <row r="173" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="B173" s="11"/>
+    </row>
+    <row r="174" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="B174" s="11"/>
+    </row>
+    <row r="175" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="B176" s="11"/>
+    </row>
+    <row r="177" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="B178" s="11"/>
+    </row>
+    <row r="179" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B180" s="11"/>
+    </row>
+    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="B181" s="11"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="B182" s="11"/>
+    </row>
+    <row r="183" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="B183" s="11"/>
+    </row>
+    <row r="184" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="B184" s="11"/>
+    </row>
+    <row r="185" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="B185" s="11"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="B186" s="11"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="B187" s="11"/>
+    </row>
+    <row r="188" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="B188" s="11"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="B189" s="11"/>
+    </row>
+    <row r="190" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="B190" s="11"/>
+    </row>
+    <row r="191" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="B191" s="11"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="B192" s="11"/>
+    </row>
+    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="B194" s="11"/>
+    </row>
+    <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="B196" s="11"/>
+    </row>
+    <row r="197" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="B198" s="11"/>
+    </row>
+    <row r="199" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="B199" s="11"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="B200" s="11"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
         <v>444</v>
       </c>
+      <c r="B201" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tweets_Cup Noodles_201809101833.xlsx
+++ b/tweets_Cup Noodles_201809101833.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvfon\Documents\Insper\Dados\C-Dados-P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Niubó\C-Dados-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3597F-11F2-47B5-9E1F-85D41AFBB14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDDB318-BF03-44D3-A209-5B64DE506A85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1965,13 +1965,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="89.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="89.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>37</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>55</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>56</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>57</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>59</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>60</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>47</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>61</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>62</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>63</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>64</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>47</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>67</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>70</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>73</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>78</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>79</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>80</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>81</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>82</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>83</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>86</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>87</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>88</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>89</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>90</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>47</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>98</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>103</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>104</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>106</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>76</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>27</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>107</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>108</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>109</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>110</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>111</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>47</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>112</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>113</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>114</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>115</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>116</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>117</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>118</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>119</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>120</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>121</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>122</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>123</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>125</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>126</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>127</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>76</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>128</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>129</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>130</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>27</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>131</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>132</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>133</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>134</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>135</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>136</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>137</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>47</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>138</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>47</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>139</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>140</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>141</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>142</v>
       </c>
@@ -3227,13 +3227,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>47</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>144</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>145</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>146</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>147</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>149</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>150</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>151</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>152</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>153</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>154</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>155</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>156</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>157</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>158</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>159</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>160</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>161</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>162</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>163</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>164</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>47</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>165</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>166</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>167</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>168</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>76</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>169</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>170</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>171</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>172</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>173</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>27</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>174</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>175</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>176</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>177</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>178</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>179</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>180</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>47</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>181</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>182</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>183</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>184</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>185</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>186</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>187</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>188</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>189</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>190</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>191</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>76</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>192</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>193</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>194</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>195</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>196</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>197</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>198</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>199</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>200</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>201</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>202</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>203</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>204</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>205</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>206</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>207</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>208</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>209</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>210</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>211</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>212</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>213</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>214</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>215</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>216</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>217</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>218</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>219</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>220</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>221</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>222</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>223</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>224</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>225</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>226</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>227</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>228</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>229</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>231</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>232</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>233</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>234</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>235</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>76</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>236</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>237</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>238</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>239</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>240</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>241</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>242</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>243</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>244</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>245</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>246</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>247</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>248</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>249</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>250</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>251</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>252</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>253</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>254</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>255</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>256</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>257</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>258</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>259</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>47</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>260</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>97</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>261</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>76</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>262</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>263</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>264</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>265</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>266</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>267</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>268</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>269</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>270</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>271</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>272</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>76</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>273</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>53</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>37</v>
       </c>
@@ -4387,16 +4387,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="79.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>274</v>
       </c>
@@ -4404,1205 +4404,1605 @@
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B65" s="11"/>
-    </row>
-    <row r="66" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B69" s="11"/>
-    </row>
-    <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B71" s="11"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B72" s="11"/>
-    </row>
-    <row r="73" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B73" s="11"/>
-    </row>
-    <row r="74" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B74" s="11"/>
-    </row>
-    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="11"/>
-    </row>
-    <row r="80" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B82" s="11"/>
-    </row>
-    <row r="83" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B83" s="11"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="11"/>
-    </row>
-    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B85" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="90" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B89" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B90" s="11"/>
-    </row>
-    <row r="91" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B90" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B91" s="11"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B92" s="11"/>
-    </row>
-    <row r="93" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B92" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B94" s="11"/>
-    </row>
-    <row r="95" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B95" s="11"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B96" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B99" s="11"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="101" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B100" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="11"/>
-    </row>
-    <row r="102" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B103" s="11"/>
-    </row>
-    <row r="104" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B103" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B104" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B105" s="11"/>
-    </row>
-    <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B106" s="11"/>
-    </row>
-    <row r="107" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B106" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B107" s="11"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B108" s="11"/>
-    </row>
-    <row r="109" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B108" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="11"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B110" s="11"/>
-    </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B110" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B111" s="11"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B112" s="11"/>
-    </row>
-    <row r="113" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B113" s="11"/>
-    </row>
-    <row r="114" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B113" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B114" s="11"/>
-    </row>
-    <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B114" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B115" s="11"/>
-    </row>
-    <row r="116" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B115" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B116" s="11"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B117" s="11"/>
-    </row>
-    <row r="118" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B117" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B118" s="11"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B119" s="11"/>
-    </row>
-    <row r="120" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B120" s="11"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B121" s="11"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B122" s="11"/>
-    </row>
-    <row r="123" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B123" s="11"/>
-    </row>
-    <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B124" s="11"/>
-    </row>
-    <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B124" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B125" s="11"/>
-    </row>
-    <row r="126" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B125" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B126" s="11"/>
-    </row>
-    <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B126" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B127" s="11"/>
-    </row>
-    <row r="128" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B127" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B128" s="11"/>
-    </row>
-    <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B129" s="11"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B130" s="11"/>
-    </row>
-    <row r="131" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B130" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B131" s="11"/>
-    </row>
-    <row r="132" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B131" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B132" s="11"/>
-    </row>
-    <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B132" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B133" s="11"/>
-    </row>
-    <row r="134" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B133" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B134" s="11"/>
-    </row>
-    <row r="135" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B134" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B135" s="11"/>
-    </row>
-    <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B135" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B136" s="11"/>
-    </row>
-    <row r="137" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B136" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B137" s="11"/>
-    </row>
-    <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B137" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B138" s="11"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B139" s="11"/>
-    </row>
-    <row r="140" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B139" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B140" s="11"/>
-    </row>
-    <row r="141" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B140" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B141" s="11"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="11"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B143" s="11"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B144" s="11"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B145" s="11"/>
-    </row>
-    <row r="146" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B145" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B146" s="11"/>
-    </row>
-    <row r="147" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B146" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B147" s="11"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B148" s="11"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B149" s="11"/>
-    </row>
-    <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B149" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B150" s="11"/>
-    </row>
-    <row r="151" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B150" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B151" s="11"/>
-    </row>
-    <row r="152" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B151" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B152" s="11"/>
-    </row>
-    <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B152" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B153" s="11"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B154" s="11"/>
-    </row>
-    <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B154" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B155" s="11"/>
-    </row>
-    <row r="156" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B155" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B156" s="11"/>
-    </row>
-    <row r="157" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B156" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B157" s="11"/>
-    </row>
-    <row r="158" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B157" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B158" s="11"/>
-    </row>
-    <row r="159" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B158" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B159" s="11"/>
-    </row>
-    <row r="160" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B159" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B160" s="11"/>
-    </row>
-    <row r="161" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B160" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B161" s="11"/>
-    </row>
-    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B161" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B162" s="11"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B163" s="11"/>
-    </row>
-    <row r="164" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B163" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B164" s="11"/>
-    </row>
-    <row r="165" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B164" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B165" s="11"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B166" s="11"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B167" s="11"/>
-    </row>
-    <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B167" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B168" s="11"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B169" s="11"/>
-    </row>
-    <row r="170" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B169" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B170" s="11"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B171" s="11"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B172" s="11"/>
-    </row>
-    <row r="173" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B172" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B173" s="11"/>
-    </row>
-    <row r="174" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B173" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B174" s="11"/>
-    </row>
-    <row r="175" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B174" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B175" s="11"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B176" s="11"/>
-    </row>
-    <row r="177" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B176" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B177" s="11"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B178" s="11"/>
-    </row>
-    <row r="179" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B178" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B179" s="11"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B180" s="11"/>
-    </row>
-    <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B180" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B181" s="11"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B182" s="11"/>
-    </row>
-    <row r="183" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B182" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B183" s="11"/>
-    </row>
-    <row r="184" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B183" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B184" s="11"/>
-    </row>
-    <row r="185" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B184" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B185" s="11"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B186" s="11"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B187" s="11"/>
-    </row>
-    <row r="188" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B187" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B188" s="11"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B189" s="11"/>
-    </row>
-    <row r="190" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B189" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B190" s="11"/>
-    </row>
-    <row r="191" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B190" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B191" s="11"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B192" s="11"/>
-    </row>
-    <row r="193" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B192" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B193" s="11"/>
-    </row>
-    <row r="194" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B193" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B194" s="11"/>
-    </row>
-    <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B194" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B195" s="11"/>
-    </row>
-    <row r="196" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B195" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B196" s="11"/>
-    </row>
-    <row r="197" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B196" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B197" s="11"/>
-    </row>
-    <row r="198" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B197" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B198" s="11"/>
-    </row>
-    <row r="199" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B198" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B199" s="11"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B200" s="11"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B201" s="11"/>
+      <c r="B201" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
